--- a/application/static/api/table-karyawan.xlsx
+++ b/application/static/api/table-karyawan.xlsx
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/application/static/api/table-karyawan.xlsx
+++ b/application/static/api/table-karyawan.xlsx
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/application/static/api/table-karyawan.xlsx
+++ b/application/static/api/table-karyawan.xlsx
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -398,7 +398,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
